--- a/runs/run734/NotionalETEOutput734.xlsx
+++ b/runs/run734/NotionalETEOutput734.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_377.MISSILE_HIGHWIND2_377</t>
+    <t>MISSILE_ANGERMAX0_493.MISSILE_ANGERMAX0_493</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_ANGERMAX0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1559.228961423813</v>
+        <v>-1560.863515848224</v>
       </c>
       <c r="J2">
-        <v>1921.158174142528</v>
+        <v>2003.564996273299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1410.982149380062</v>
+        <v>-1408.299177268753</v>
       </c>
       <c r="J3">
-        <v>1951.50803436674</v>
+        <v>1961.713115537877</v>
       </c>
       <c r="K3">
-        <v>316.337099695724</v>
+        <v>290.6433335425097</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1398.560275499026</v>
+        <v>-1395.251460102261</v>
       </c>
       <c r="J4">
-        <v>1896.306779380149</v>
+        <v>1880.219491207293</v>
       </c>
       <c r="K4">
-        <v>575.3212621502596</v>
+        <v>584.0070768567034</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1458.957023933427</v>
+        <v>-1355.080367588112</v>
       </c>
       <c r="J5">
-        <v>1909.457192273841</v>
+        <v>1858.845832864091</v>
       </c>
       <c r="K5">
-        <v>843.273015956355</v>
+        <v>865.3839028690034</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1389.488162773254</v>
+        <v>-1373.769584581281</v>
       </c>
       <c r="J6">
-        <v>1823.445008753777</v>
+        <v>1743.371970888085</v>
       </c>
       <c r="K6">
-        <v>1128.513146145757</v>
+        <v>1113.922191865671</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1402.747257339198</v>
+        <v>-1395.853846150694</v>
       </c>
       <c r="J7">
-        <v>1762.069617995292</v>
+        <v>1806.651733748912</v>
       </c>
       <c r="K7">
-        <v>1334.080052660675</v>
+        <v>1336.845540968163</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1290.515882764081</v>
+        <v>-1287.744918635785</v>
       </c>
       <c r="J8">
-        <v>1746.903226466369</v>
+        <v>1725.393812599548</v>
       </c>
       <c r="K8">
-        <v>1630.470500071914</v>
+        <v>1663.466963871946</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.6395679179361</v>
+        <v>-102.8173097846063</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1312.705800713584</v>
+        <v>-1335.794774231254</v>
       </c>
       <c r="J9">
-        <v>1615.07981710393</v>
+        <v>1592.520860249731</v>
       </c>
       <c r="K9">
-        <v>1890.754776307694</v>
+        <v>1738.812416987289</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.9453783215521</v>
+        <v>227.938714343109</v>
       </c>
       <c r="G10">
-        <v>-87.4759425106835</v>
+        <v>-86.19158950784036</v>
       </c>
       <c r="H10">
-        <v>866.0024219040829</v>
+        <v>878.0947541606359</v>
       </c>
       <c r="I10">
-        <v>-1235.25049651147</v>
+        <v>-1237.939734936369</v>
       </c>
       <c r="J10">
-        <v>1663.120257333027</v>
+        <v>1588.229547884167</v>
       </c>
       <c r="K10">
-        <v>2009.475898567024</v>
+        <v>1907.056367151062</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>167.8177656935572</v>
+        <v>169.6937643875107</v>
       </c>
       <c r="G11">
-        <v>-69.87620740048406</v>
+        <v>-65.10315570083455</v>
       </c>
       <c r="H11">
-        <v>1049.439459119715</v>
+        <v>1068.558451234936</v>
       </c>
       <c r="I11">
-        <v>-1172.716525239812</v>
+        <v>-1191.017495321805</v>
       </c>
       <c r="J11">
-        <v>1572.601071541768</v>
+        <v>1544.908652212865</v>
       </c>
       <c r="K11">
-        <v>2277.121193936101</v>
+        <v>2158.425271982321</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.9615451815284</v>
+        <v>139.5314489411439</v>
       </c>
       <c r="G12">
-        <v>-52.2760081320495</v>
+        <v>-51.22943271495927</v>
       </c>
       <c r="H12">
-        <v>1129.421432671575</v>
+        <v>1215.555609597145</v>
       </c>
       <c r="I12">
-        <v>-1118.902103581341</v>
+        <v>-1186.915285614783</v>
       </c>
       <c r="J12">
-        <v>1527.349553545304</v>
+        <v>1495.1940294849</v>
       </c>
       <c r="K12">
-        <v>2473.949576613313</v>
+        <v>2259.75384658272</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.1282084680337</v>
+        <v>127.3368783629108</v>
       </c>
       <c r="G13">
-        <v>-34.51594695214884</v>
+        <v>-35.43702039326403</v>
       </c>
       <c r="H13">
-        <v>1256.984427846892</v>
+        <v>1308.757776643609</v>
       </c>
       <c r="I13">
-        <v>-1131.511637846935</v>
+        <v>-1165.277945279035</v>
       </c>
       <c r="J13">
-        <v>1518.868743535513</v>
+        <v>1462.968542549459</v>
       </c>
       <c r="K13">
-        <v>2511.756369077792</v>
+        <v>2589.277556944894</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.9098173964512</v>
+        <v>107.8514648213849</v>
       </c>
       <c r="G14">
-        <v>-18.08983639592157</v>
+        <v>-18.0939127874606</v>
       </c>
       <c r="H14">
-        <v>1296.630789030004</v>
+        <v>1364.488576741609</v>
       </c>
       <c r="I14">
-        <v>-1049.774259851159</v>
+        <v>-1058.67160845594</v>
       </c>
       <c r="J14">
-        <v>1424.992941684728</v>
+        <v>1423.478324979183</v>
       </c>
       <c r="K14">
-        <v>2605.161182167923</v>
+        <v>2703.305784671808</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.74799903912159</v>
+        <v>96.41295480664141</v>
       </c>
       <c r="G15">
-        <v>-0.9334932924766182</v>
+        <v>-0.8973032916723678</v>
       </c>
       <c r="H15">
-        <v>1393.560894019016</v>
+        <v>1436.223471625843</v>
       </c>
       <c r="I15">
-        <v>-1066.97497598842</v>
+        <v>-1021.949370393891</v>
       </c>
       <c r="J15">
-        <v>1326.640139360382</v>
+        <v>1311.366831038562</v>
       </c>
       <c r="K15">
-        <v>2871.629320864645</v>
+        <v>2704.304783314003</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.67610306382743</v>
+        <v>94.34820403863336</v>
       </c>
       <c r="G16">
-        <v>15.44408379746624</v>
+        <v>15.7552973510669</v>
       </c>
       <c r="H16">
-        <v>1361.884840137857</v>
+        <v>1429.060783036844</v>
       </c>
       <c r="I16">
-        <v>-1029.324541559053</v>
+        <v>-1005.30702066238</v>
       </c>
       <c r="J16">
-        <v>1332.189243240219</v>
+        <v>1290.683988994743</v>
       </c>
       <c r="K16">
-        <v>3005.312907423691</v>
+        <v>3013.227136332763</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.79139411449627</v>
+        <v>89.43808729129003</v>
       </c>
       <c r="G17">
-        <v>33.49246220796303</v>
+        <v>31.5068678450431</v>
       </c>
       <c r="H17">
-        <v>1441.043516893212</v>
+        <v>1523.964142850301</v>
       </c>
       <c r="I17">
-        <v>-1000.049431273383</v>
+        <v>-970.8378822165937</v>
       </c>
       <c r="J17">
-        <v>1267.833833273028</v>
+        <v>1223.708850917982</v>
       </c>
       <c r="K17">
-        <v>3059.148231047442</v>
+        <v>2899.045485640537</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.87566105605499</v>
+        <v>79.89119012422347</v>
       </c>
       <c r="G18">
-        <v>49.80224527806052</v>
+        <v>50.67792529880821</v>
       </c>
       <c r="H18">
-        <v>1499.613694819573</v>
+        <v>1434.707709368867</v>
       </c>
       <c r="I18">
-        <v>-971.8105513424464</v>
+        <v>-914.5315833362461</v>
       </c>
       <c r="J18">
-        <v>1248.800636459926</v>
+        <v>1242.937020295627</v>
       </c>
       <c r="K18">
-        <v>2948.510073135295</v>
+        <v>3154.797934062939</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>81.33912081792401</v>
+        <v>76.7909168792837</v>
       </c>
       <c r="G19">
-        <v>67.22655647381524</v>
+        <v>67.01300157648897</v>
       </c>
       <c r="H19">
-        <v>1512.038193606192</v>
+        <v>1476.017883887487</v>
       </c>
       <c r="I19">
-        <v>-870.9546777816593</v>
+        <v>-904.4438843574967</v>
       </c>
       <c r="J19">
-        <v>1193.13017516695</v>
+        <v>1146.639313456352</v>
       </c>
       <c r="K19">
-        <v>3201.592877541443</v>
+        <v>3092.241154112786</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.05533316024189</v>
+        <v>75.83908596917937</v>
       </c>
       <c r="G20">
-        <v>78.44047240128312</v>
+        <v>84.11026358547186</v>
       </c>
       <c r="H20">
-        <v>1555.572379713618</v>
+        <v>1560.011527619976</v>
       </c>
       <c r="I20">
-        <v>-828.0203061110756</v>
+        <v>-804.002857860203</v>
       </c>
       <c r="J20">
-        <v>1132.234356366827</v>
+        <v>1083.925276877358</v>
       </c>
       <c r="K20">
-        <v>3086.269691263673</v>
+        <v>2997.06590418833</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.19797111234915</v>
+        <v>69.13490596326731</v>
       </c>
       <c r="G21">
-        <v>100.9535618863842</v>
+        <v>95.9383941671074</v>
       </c>
       <c r="H21">
-        <v>1561.479050398739</v>
+        <v>1600.841316770923</v>
       </c>
       <c r="I21">
-        <v>-757.7479785791003</v>
+        <v>-802.1007634393485</v>
       </c>
       <c r="J21">
-        <v>1027.703246401948</v>
+        <v>1080.125797574396</v>
       </c>
       <c r="K21">
-        <v>3076.218351692718</v>
+        <v>3099.060574991316</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.93038189993574</v>
+        <v>69.07884711618172</v>
       </c>
       <c r="G22">
-        <v>114.423716025627</v>
+        <v>119.5299886148434</v>
       </c>
       <c r="H22">
-        <v>1689.92405594211</v>
+        <v>1666.234722497729</v>
       </c>
       <c r="I22">
-        <v>-753.5258809809579</v>
+        <v>-751.4681580447093</v>
       </c>
       <c r="J22">
-        <v>1078.061388468383</v>
+        <v>1067.171219281758</v>
       </c>
       <c r="K22">
-        <v>3075.837384779614</v>
+        <v>3312.848126728939</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.31707768599414</v>
+        <v>65.9580281875169</v>
       </c>
       <c r="G23">
-        <v>134.6845635558747</v>
+        <v>130.8282423211609</v>
       </c>
       <c r="H23">
-        <v>1665.459825583001</v>
+        <v>1671.222304774416</v>
       </c>
       <c r="I23">
-        <v>-690.8264390152549</v>
+        <v>-711.2026927445592</v>
       </c>
       <c r="J23">
-        <v>935.0635559245209</v>
+        <v>1009.470749376563</v>
       </c>
       <c r="K23">
-        <v>3212.638835909058</v>
+        <v>3243.008249164493</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.55446902583159</v>
+        <v>66.10510527721465</v>
       </c>
       <c r="G24">
-        <v>147.0996941670929</v>
+        <v>141.992287567899</v>
       </c>
       <c r="H24">
-        <v>1633.57101734134</v>
+        <v>1690.394009386757</v>
       </c>
       <c r="I24">
-        <v>-650.9127273624786</v>
+        <v>-617.686899993438</v>
       </c>
       <c r="J24">
-        <v>919.8150393168194</v>
+        <v>903.3457669890346</v>
       </c>
       <c r="K24">
-        <v>3177.985171051148</v>
+        <v>3176.466243077033</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.98056285425206</v>
+        <v>61.01615727483667</v>
       </c>
       <c r="G25">
-        <v>160.8373469454736</v>
+        <v>168.3885223354413</v>
       </c>
       <c r="H25">
-        <v>1685.043195144465</v>
+        <v>1685.846683318499</v>
       </c>
       <c r="I25">
-        <v>-612.8549215237647</v>
+        <v>-610.2737566352725</v>
       </c>
       <c r="J25">
-        <v>924.5636722459273</v>
+        <v>902.9110878582818</v>
       </c>
       <c r="K25">
-        <v>3243.422171083491</v>
+        <v>3170.865497011775</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.83072496721236</v>
+        <v>59.1079494465596</v>
       </c>
       <c r="G26">
-        <v>179.0442395645985</v>
+        <v>183.4922485359391</v>
       </c>
       <c r="H26">
-        <v>1695.228413341115</v>
+        <v>1639.458427237092</v>
       </c>
       <c r="I26">
-        <v>-560.4347197391338</v>
+        <v>-530.1216778265565</v>
       </c>
       <c r="J26">
-        <v>836.1581171520291</v>
+        <v>816.9005700585498</v>
       </c>
       <c r="K26">
-        <v>3158.57325343023</v>
+        <v>3090.322600830022</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.25230503277231</v>
+        <v>56.16112421230023</v>
       </c>
       <c r="G27">
-        <v>203.419959946971</v>
+        <v>200.0046651891235</v>
       </c>
       <c r="H27">
-        <v>1746.422179879142</v>
+        <v>1659.958321457312</v>
       </c>
       <c r="I27">
-        <v>-494.7988800840535</v>
+        <v>-514.7856959665966</v>
       </c>
       <c r="J27">
-        <v>767.4763429890462</v>
+        <v>759.1516659053258</v>
       </c>
       <c r="K27">
-        <v>3091.27420954584</v>
+        <v>3027.680497968659</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.72901311838773</v>
+        <v>56.06791462632732</v>
       </c>
       <c r="G28">
-        <v>220.0664616268832</v>
+        <v>211.3276763347785</v>
       </c>
       <c r="H28">
-        <v>1760.392089765629</v>
+        <v>1774.982038732262</v>
       </c>
       <c r="I28">
-        <v>-427.7581507387341</v>
+        <v>-422.571505367677</v>
       </c>
       <c r="J28">
-        <v>751.7371159121509</v>
+        <v>701.6136510623764</v>
       </c>
       <c r="K28">
-        <v>3051.357947090486</v>
+        <v>3076.11232736903</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.98853653544846</v>
+        <v>54.58365064684315</v>
       </c>
       <c r="G29">
-        <v>222.7347082181098</v>
+        <v>226.5465760178221</v>
       </c>
       <c r="H29">
-        <v>1765.873269004286</v>
+        <v>1807.56003549853</v>
       </c>
       <c r="I29">
-        <v>-364.3053173835265</v>
+        <v>-384.6335463410586</v>
       </c>
       <c r="J29">
-        <v>681.1979946358034</v>
+        <v>701.6251276202685</v>
       </c>
       <c r="K29">
-        <v>2756.3101213372</v>
+        <v>2952.855224985371</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.51959519060393</v>
+        <v>55.22833255966549</v>
       </c>
       <c r="G30">
-        <v>246.7466490129131</v>
+        <v>253.346814927348</v>
       </c>
       <c r="H30">
-        <v>1695.283316463361</v>
+        <v>1737.370724699889</v>
       </c>
       <c r="I30">
-        <v>-312.9053741473422</v>
+        <v>-330.4053441674109</v>
       </c>
       <c r="J30">
-        <v>609.7796056783147</v>
+        <v>638.3342630653329</v>
       </c>
       <c r="K30">
-        <v>2668.764493635429</v>
+        <v>2674.290050989652</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.00272960271769</v>
+        <v>50.5075388162863</v>
       </c>
       <c r="G31">
-        <v>270.3221758953921</v>
+        <v>253.9743649669889</v>
       </c>
       <c r="H31">
-        <v>1802.024410246097</v>
+        <v>1801.845694804715</v>
       </c>
       <c r="I31">
-        <v>-265.5616593315385</v>
+        <v>-263.3215637161367</v>
       </c>
       <c r="J31">
-        <v>576.3897851111699</v>
+        <v>597.9649805977825</v>
       </c>
       <c r="K31">
-        <v>2579.041861314771</v>
+        <v>2644.556047498605</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.45387882784151</v>
+        <v>49.28463566708989</v>
       </c>
       <c r="G32">
-        <v>275.532623110753</v>
+        <v>288.524594456991</v>
       </c>
       <c r="H32">
-        <v>1817.853957734188</v>
+        <v>1778.122696644893</v>
       </c>
       <c r="I32">
-        <v>-212.3799462527341</v>
+        <v>-200.5256397422442</v>
       </c>
       <c r="J32">
-        <v>538.7840109677834</v>
+        <v>539.990901555222</v>
       </c>
       <c r="K32">
-        <v>2454.434584409972</v>
+        <v>2436.878904024391</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.02402339064936</v>
+        <v>50.14719226952051</v>
       </c>
       <c r="G33">
-        <v>310.7793193313405</v>
+        <v>296.9006361019333</v>
       </c>
       <c r="H33">
-        <v>1787.295427733849</v>
+        <v>1756.190198486965</v>
       </c>
       <c r="I33">
-        <v>-140.017894285796</v>
+        <v>-153.0696576400526</v>
       </c>
       <c r="J33">
-        <v>511.017854319954</v>
+        <v>467.8694848880206</v>
       </c>
       <c r="K33">
-        <v>2426.352936618568</v>
+        <v>2283.048514787765</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.49973621869968</v>
+        <v>50.22929088853021</v>
       </c>
       <c r="G34">
-        <v>306.2172214476228</v>
+        <v>302.3234235625056</v>
       </c>
       <c r="H34">
-        <v>1789.990138865139</v>
+        <v>1795.787225134625</v>
       </c>
       <c r="I34">
-        <v>-80.32754115586002</v>
+        <v>-81.65068889977677</v>
       </c>
       <c r="J34">
-        <v>442.9317177645394</v>
+        <v>456.7925165004226</v>
       </c>
       <c r="K34">
-        <v>2129.542727077985</v>
+        <v>2318.110769412402</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.51465165124549</v>
+        <v>48.15631630924568</v>
       </c>
       <c r="G35">
-        <v>314.6225562795606</v>
+        <v>341.3869262977075</v>
       </c>
       <c r="H35">
-        <v>1747.117922508809</v>
+        <v>1738.490145621343</v>
       </c>
       <c r="I35">
-        <v>-19.62173126569712</v>
+        <v>-18.74183263998996</v>
       </c>
       <c r="J35">
-        <v>393.5804156812832</v>
+        <v>398.7851918142159</v>
       </c>
       <c r="K35">
-        <v>1964.330804702792</v>
+        <v>2111.725620345983</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.80717398258432</v>
+        <v>49.65548974633876</v>
       </c>
       <c r="G36">
-        <v>346.7154106482771</v>
+        <v>346.5055375234941</v>
       </c>
       <c r="H36">
-        <v>1765.294772214987</v>
+        <v>1813.610086259981</v>
       </c>
       <c r="I36">
-        <v>47.58924894912422</v>
+        <v>45.92031602582838</v>
       </c>
       <c r="J36">
-        <v>341.9061173478086</v>
+        <v>328.9300780093879</v>
       </c>
       <c r="K36">
-        <v>1765.761051119529</v>
+        <v>1891.29994301464</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.71187728947918</v>
+        <v>45.41071871645681</v>
       </c>
       <c r="G37">
-        <v>359.3510820485658</v>
+        <v>345.1403179259638</v>
       </c>
       <c r="H37">
-        <v>1762.547436588322</v>
+        <v>1777.048823370122</v>
       </c>
       <c r="I37">
-        <v>112.4059400407319</v>
+        <v>116.7658743311266</v>
       </c>
       <c r="J37">
-        <v>289.0247016306786</v>
+        <v>308.5988354184275</v>
       </c>
       <c r="K37">
-        <v>1682.661766141734</v>
+        <v>1605.692185965776</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.48708427807907</v>
+        <v>47.64026322569166</v>
       </c>
       <c r="G38">
-        <v>397.0650228123566</v>
+        <v>373.7423614277922</v>
       </c>
       <c r="H38">
-        <v>1863.658180595474</v>
+        <v>1935.272498322564</v>
       </c>
       <c r="I38">
-        <v>179.7748810602502</v>
+        <v>178.3934150817071</v>
       </c>
       <c r="J38">
-        <v>244.0853385344407</v>
+        <v>247.9797903648156</v>
       </c>
       <c r="K38">
-        <v>1379.734674264886</v>
+        <v>1339.265238041388</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.48236400593144</v>
+        <v>45.05551195145641</v>
       </c>
       <c r="G39">
-        <v>383.0248600553467</v>
+        <v>388.0942799268882</v>
       </c>
       <c r="H39">
-        <v>1853.969054978059</v>
+        <v>1808.460914148574</v>
       </c>
       <c r="I39">
-        <v>255.8646204579382</v>
+        <v>265.4974646600344</v>
       </c>
       <c r="J39">
-        <v>205.9144432294955</v>
+        <v>196.8269060090103</v>
       </c>
       <c r="K39">
-        <v>1125.763649061085</v>
+        <v>1103.234418109163</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.83652692420528</v>
+        <v>44.52557444621275</v>
       </c>
       <c r="G40">
-        <v>396.0138835701283</v>
+        <v>396.0277061431657</v>
       </c>
       <c r="H40">
-        <v>1803.908311978391</v>
+        <v>1806.646920934353</v>
       </c>
       <c r="I40">
-        <v>344.2499692478852</v>
+        <v>319.943291248948</v>
       </c>
       <c r="J40">
-        <v>144.7336390773891</v>
+        <v>156.7810466394188</v>
       </c>
       <c r="K40">
-        <v>921.2083185090153</v>
+        <v>890.4664076873368</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.62979255852174</v>
+        <v>43.448045170586</v>
       </c>
       <c r="G41">
-        <v>435.2066151288263</v>
+        <v>442.9942730905749</v>
       </c>
       <c r="H41">
-        <v>1887.605180450845</v>
+        <v>1843.52540488037</v>
       </c>
       <c r="I41">
-        <v>400.3214594302587</v>
+        <v>391.1991496694882</v>
       </c>
       <c r="J41">
-        <v>106.5741471657777</v>
+        <v>102.1950054388756</v>
       </c>
       <c r="K41">
-        <v>615.3343857402322</v>
+        <v>592.9207072869999</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.92973963592321</v>
+        <v>41.39698218320813</v>
       </c>
       <c r="G42">
-        <v>466.894877331405</v>
+        <v>445.5021133124789</v>
       </c>
       <c r="H42">
-        <v>1879.927497195614</v>
+        <v>1856.978431439627</v>
       </c>
       <c r="I42">
-        <v>495.5119345034013</v>
+        <v>481.5456077450528</v>
       </c>
       <c r="J42">
-        <v>53.91277601367335</v>
+        <v>53.15256584929605</v>
       </c>
       <c r="K42">
-        <v>336.9616155843344</v>
+        <v>334.9668347721507</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.1654926509127</v>
+        <v>42.19055149241295</v>
       </c>
       <c r="G43">
-        <v>471.7070935339927</v>
+        <v>462.1605909964202</v>
       </c>
       <c r="H43">
-        <v>1804.866098140977</v>
+        <v>1934.737871403637</v>
       </c>
       <c r="I43">
-        <v>537.2036117322006</v>
+        <v>557.1761400606501</v>
       </c>
       <c r="J43">
-        <v>5.161218353466763</v>
+        <v>5.32731899387912</v>
       </c>
       <c r="K43">
-        <v>33.30809894843024</v>
+        <v>33.99343521405255</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.69291084147255</v>
+        <v>39.87129025451697</v>
       </c>
       <c r="G44">
-        <v>488.5305119584029</v>
+        <v>468.0754088345761</v>
       </c>
       <c r="H44">
-        <v>1978.081738535998</v>
+        <v>1988.581283363639</v>
       </c>
       <c r="I44">
-        <v>636.4539799333345</v>
+        <v>632.0281450217485</v>
       </c>
       <c r="J44">
-        <v>-45.065475407537</v>
+        <v>-41.91235697296939</v>
       </c>
       <c r="K44">
-        <v>-280.2616818712801</v>
+        <v>-296.6751792439536</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.40232510082109</v>
+        <v>42.90351473220833</v>
       </c>
       <c r="G45">
-        <v>513.253926118977</v>
+        <v>483.6579592841952</v>
       </c>
       <c r="H45">
-        <v>1978.417814220853</v>
+        <v>1852.760592906177</v>
       </c>
       <c r="I45">
-        <v>690.4542307958949</v>
+        <v>702.322496657394</v>
       </c>
       <c r="J45">
-        <v>-96.15574581729824</v>
+        <v>-95.52580894293408</v>
       </c>
       <c r="K45">
-        <v>-609.7915690634753</v>
+        <v>-623.9496775737535</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.09531666456729</v>
+        <v>40.28810169658477</v>
       </c>
       <c r="G46">
-        <v>493.6827853177101</v>
+        <v>523.7088295511503</v>
       </c>
       <c r="H46">
-        <v>1845.834292043001</v>
+        <v>1852.752886218245</v>
       </c>
       <c r="I46">
-        <v>765.0711439254247</v>
+        <v>808.7975159417451</v>
       </c>
       <c r="J46">
-        <v>-142.9857470228234</v>
+        <v>-144.0445540945982</v>
       </c>
       <c r="K46">
-        <v>-977.3198068594287</v>
+        <v>-985.2922083457065</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.65980166982997</v>
+        <v>39.23141681602287</v>
       </c>
       <c r="G47">
-        <v>521.5530485216876</v>
+        <v>536.3069279289772</v>
       </c>
       <c r="H47">
-        <v>1971.650129943274</v>
+        <v>1927.275532353043</v>
       </c>
       <c r="I47">
-        <v>904.1485458658232</v>
+        <v>877.7348440184303</v>
       </c>
       <c r="J47">
-        <v>-188.3276056059197</v>
+        <v>-197.5331985930774</v>
       </c>
       <c r="K47">
-        <v>-1389.829383944222</v>
+        <v>-1381.114235014263</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.3378374717035</v>
+        <v>38.17070712154302</v>
       </c>
       <c r="G48">
-        <v>530.9459403979927</v>
+        <v>516.968873440292</v>
       </c>
       <c r="H48">
-        <v>2010.479158621192</v>
+        <v>2026.540121685458</v>
       </c>
       <c r="I48">
-        <v>939.07315007188</v>
+        <v>973.991458783726</v>
       </c>
       <c r="J48">
-        <v>-233.8947014044095</v>
+        <v>-248.6125919824098</v>
       </c>
       <c r="K48">
-        <v>-1736.010391322866</v>
+        <v>-1658.38550321717</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.01430261965378</v>
+        <v>39.54409062504053</v>
       </c>
       <c r="G49">
-        <v>549.0815765290877</v>
+        <v>581.2103606622925</v>
       </c>
       <c r="H49">
-        <v>1877.162501545594</v>
+        <v>1988.200741063146</v>
       </c>
       <c r="I49">
-        <v>1035.231988332945</v>
+        <v>1074.555956139782</v>
       </c>
       <c r="J49">
-        <v>-279.4724213880831</v>
+        <v>-293.6682595560163</v>
       </c>
       <c r="K49">
-        <v>-2083.711009949596</v>
+        <v>-2080.440591044406</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.00042201882666</v>
+        <v>39.74397877547578</v>
       </c>
       <c r="G50">
-        <v>565.7267582401515</v>
+        <v>554.4052300703891</v>
       </c>
       <c r="H50">
-        <v>2038.208806160552</v>
+        <v>1906.991337297724</v>
       </c>
       <c r="I50">
-        <v>1211.877837033854</v>
+        <v>1218.828050978785</v>
       </c>
       <c r="J50">
-        <v>-331.4996432229453</v>
+        <v>-332.6608787296088</v>
       </c>
       <c r="K50">
-        <v>-2501.261506732122</v>
+        <v>-2535.45901588771</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.75740180856264</v>
+        <v>36.3300857920693</v>
       </c>
       <c r="G51">
-        <v>603.7686799138779</v>
+        <v>585.6872010211912</v>
       </c>
       <c r="H51">
-        <v>1963.825754948022</v>
+        <v>1916.009084944278</v>
       </c>
       <c r="I51">
-        <v>1227.741062967202</v>
+        <v>1314.294119246282</v>
       </c>
       <c r="J51">
-        <v>-401.0874577354585</v>
+        <v>-377.3481622664988</v>
       </c>
       <c r="K51">
-        <v>-2902.989804529339</v>
+        <v>-2815.523273068452</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.79334719209476</v>
+        <v>36.01357928120331</v>
       </c>
       <c r="G52">
-        <v>581.6550917047457</v>
+        <v>616.762533453481</v>
       </c>
       <c r="H52">
-        <v>1910.814801595904</v>
+        <v>1929.851182538691</v>
       </c>
       <c r="I52">
-        <v>1422.164942242076</v>
+        <v>1318.641029800809</v>
       </c>
       <c r="J52">
-        <v>-434.8911647512962</v>
+        <v>-448.6608467443511</v>
       </c>
       <c r="K52">
-        <v>-3349.933898479578</v>
+        <v>-3400.311996488778</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.56170262193302</v>
+        <v>38.02471410316178</v>
       </c>
       <c r="G53">
-        <v>648.3278906286035</v>
+        <v>652.999848388161</v>
       </c>
       <c r="H53">
-        <v>2025.016619400619</v>
+        <v>1959.724977213224</v>
       </c>
       <c r="I53">
-        <v>1483.226993793937</v>
+        <v>1421.105565300844</v>
       </c>
       <c r="J53">
-        <v>-482.9595646087712</v>
+        <v>-472.2604249891628</v>
       </c>
       <c r="K53">
-        <v>-3805.404836710535</v>
+        <v>-3875.285755428723</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.83652344912968</v>
+        <v>34.95114702064846</v>
       </c>
       <c r="G54">
-        <v>621.1529218252133</v>
+        <v>643.1274146638406</v>
       </c>
       <c r="H54">
-        <v>2077.76818325789</v>
+        <v>1975.337028601982</v>
       </c>
       <c r="I54">
-        <v>1513.61273946391</v>
+        <v>1504.866216234482</v>
       </c>
       <c r="J54">
-        <v>-548.0959535814376</v>
+        <v>-507.246551740598</v>
       </c>
       <c r="K54">
-        <v>-4083.196846626994</v>
+        <v>-4323.085087814729</v>
       </c>
     </row>
   </sheetData>
